--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scohen\PycharmProjects\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oniazov\PycharmProjects\Automationnew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB315E-75E8-425C-8CAC-D60B13E4FC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3382CB-8F98-4D39-BDD2-8537E99ED36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2205" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>MDR</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Mytronix B400</t>
+  </si>
+  <si>
+    <t>I DC Tolerance</t>
   </si>
 </sst>
 </file>
@@ -108,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,19 +394,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -413,7 +417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -424,7 +428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -435,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -446,7 +450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -457,29 +461,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -490,7 +494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -501,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -512,7 +516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -523,7 +527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -532,6 +536,17 @@
       </c>
       <c r="C12">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
